--- a/gcam-data-system/energy-data/assumptions/Tables_A30s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A30s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="A32.sector.csv" sheetId="5" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="A32.globaltech_shrwt.csv" sheetId="23" r:id="rId8"/>
     <sheet name="A32.nonenergy_Cseq.csv" sheetId="70" r:id="rId9"/>
     <sheet name="A32.fuelprefElasticity.csv" sheetId="71" r:id="rId10"/>
+    <sheet name="A32.demand" sheetId="72" r:id="rId11"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="69">
   <si>
     <t>technology</t>
   </si>
@@ -217,6 +218,24 @@
   </si>
   <si>
     <t>criteria</t>
+  </si>
+  <si>
+    <t>#Sequestration of carbon through non-energy use. Following CDIAC method (not EPA FCCC method)</t>
+  </si>
+  <si>
+    <t>#Fuel preference elasticities for industrial energy use. Using rules rather than ad-hoc regional assignments</t>
+  </si>
+  <si>
+    <t>#Characteristics of final demand sectors. Note that income elasticities are set in the socioeconomics module</t>
+  </si>
+  <si>
+    <t>energy.final.demand</t>
+  </si>
+  <si>
+    <t>perCapitaBased</t>
+  </si>
+  <si>
+    <t>price.elasticity</t>
   </si>
 </sst>
 </file>
@@ -268,8 +287,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1677">
+  <cellStyleXfs count="1681">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1952,7 +1975,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1677">
+  <cellStyles count="1681">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2791,6 +2814,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1672" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1674" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1680" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3629,6 +3654,8 @@
     <cellStyle name="Hyperlink" xfId="1671" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1673" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1679" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4059,73 +4086,137 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="C2">
+      <c r="D3">
         <v>0.15</v>
       </c>
-      <c r="D2">
+      <c r="E3">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>59</v>
       </c>
-      <c r="C3">
+      <c r="D4">
         <v>0.3</v>
       </c>
-      <c r="D3">
+      <c r="E4">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>0.1</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>-0.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6286,10 +6377,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6300,6 +6391,11 @@
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>7</v>
